--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288946.8173708933</v>
+        <v>283930.8998657203</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6910428.15556014</v>
+        <v>6037395.839817924</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13105198.29760689</v>
+        <v>12249539.32494794</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6292185.825754242</v>
+        <v>6651895.38360337</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,58 +676,58 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="I2" t="n">
-        <v>46.39658611529718</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>164.8484195083599</v>
-      </c>
-      <c r="T2" t="n">
-        <v>221.2655964161775</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +740,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>24.19737789306625</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>72.36753101429152</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>28.27372296392322</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>202.5496269016834</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>67.04736083661739</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>91.71888539121009</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>34.0465601470127</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>229.9609751381512</v>
@@ -1111,7 +1113,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>229.9609751381512</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>65.59588116322358</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>79.36679566671111</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
@@ -1275,10 +1277,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>62.38312163983497</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>165.87148443952</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>23.25994061538802</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="E11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H11" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>57.24428555479227</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1503,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>79.36679566671111</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1512,10 +1514,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>86.64940239199029</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1698,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>117.3782853270552</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="16">
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>79.88764742793472</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>235.4551847859264</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>8.783601537963911</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>87.41444223540492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
         <v>175.2139736830806</v>
@@ -1986,10 +1988,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>61.12539172422213</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.9609751381512</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
-        <v>229.9609751381512</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>229.9609751381512</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>202.5496269016834</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>147.2866323034272</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>211.1816393399717</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2175,7 +2177,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
-        <v>87.41444223540508</v>
+        <v>87.41444223540492</v>
       </c>
       <c r="I21" t="n">
         <v>48.89338144820752</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>127.6181649108725</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2318,25 +2320,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>85.21731976802202</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>16.04602484718594</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.0937863312743</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2561,13 +2563,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>166.5940378590014</v>
       </c>
       <c r="G26" t="n">
-        <v>312.1350518117875</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2682,7 +2684,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291307</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
         <v>175.2139736830806</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2776,7 +2778,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2798,7 +2800,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>154.3568911701399</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>365.4191756886113</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.3149947016333</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.6661862967996</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>77.62938215653082</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3041,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>141.4187011949032</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>137.4348246626608</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.8763835457721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>297.9658280922733</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>12.36035738136056</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>175.6983641828944</v>
+        <v>257.5339557994077</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>74.33364624058832</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>289.1043232126787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.55929761466015</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>352.0529845551399</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -3788,25 +3790,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>72.87250780621618</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>38.44859076233502</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3958,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>72.87250780621618</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>229.9609751381512</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>229.9609751381512</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4065,16 +4067,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>114.4796788669365</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9609751381512</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9609751381512</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>109.0606995868097</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C2" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D2" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E2" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F2" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G2" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H2" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I2" t="n">
         <v>18.39687801105209</v>
@@ -4331,19 +4333,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>390.7080163066498</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L2" t="n">
-        <v>390.7080163066498</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M2" t="n">
-        <v>618.3693816934194</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N2" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O2" t="n">
-        <v>734.998340411656</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P2" t="n">
         <v>734.998340411656</v>
@@ -4355,25 +4357,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S2" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T2" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U2" t="n">
-        <v>297.5459297822121</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V2" t="n">
-        <v>297.5459297822121</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W2" t="n">
-        <v>297.5459297822121</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X2" t="n">
-        <v>297.5459297822121</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.5459297822121</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.01837283546</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C3" t="n">
-        <v>409.3641423955522</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D3" t="n">
-        <v>279.2751750170326</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E3" t="n">
-        <v>142.8286841279203</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F3" t="n">
         <v>18.39687801105209</v>
@@ -4410,49 +4412,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L3" t="n">
-        <v>586.8345910043187</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M3" t="n">
-        <v>814.4959563910883</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="N3" t="n">
-        <v>814.4959563910883</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O3" t="n">
-        <v>814.4959563910883</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P3" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T3" t="n">
-        <v>784.9132234524734</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U3" t="n">
-        <v>784.9132234524734</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="V3" t="n">
-        <v>784.9132234524734</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="W3" t="n">
-        <v>784.9132234524734</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="X3" t="n">
-        <v>784.9132234524734</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="Y3" t="n">
-        <v>711.8147072764214</v>
+        <v>170.1932124520134</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C4" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D4" t="n">
-        <v>18.39687801105209</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="E4" t="n">
-        <v>18.39687801105209</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F4" t="n">
-        <v>18.39687801105209</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G4" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H4" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I4" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J4" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="K4" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
@@ -4522,16 +4524,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V4" t="n">
-        <v>891.2845844274296</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W4" t="n">
-        <v>659.0007711565698</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X4" t="n">
-        <v>426.71695788571</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y4" t="n">
-        <v>203.6048967023534</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C5" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D5" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E5" t="n">
         <v>18.39687801105209</v>
@@ -4568,10 +4570,10 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K5" t="n">
-        <v>246.0582433978217</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="L5" t="n">
-        <v>473.7196087845913</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M5" t="n">
         <v>507.3369750248864</v>
@@ -4598,19 +4600,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U5" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V5" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W5" t="n">
-        <v>222.9924607400252</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X5" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353.8951226827334</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C6" t="n">
-        <v>353.8951226827334</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D6" t="n">
-        <v>223.8061553042137</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E6" t="n">
-        <v>223.8061553042137</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F6" t="n">
-        <v>223.8061553042137</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H6" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
@@ -4647,49 +4649,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1732256175491</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N6" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O6" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P6" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T6" t="n">
-        <v>584.0123685494465</v>
+        <v>827.1985617736045</v>
       </c>
       <c r="U6" t="n">
-        <v>584.0123685494465</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="V6" t="n">
-        <v>584.0123685494465</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="W6" t="n">
-        <v>353.8951226827334</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X6" t="n">
-        <v>353.8951226827334</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y6" t="n">
-        <v>353.8951226827334</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.6019959450629</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="C7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="D7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="E7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="F7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="G7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="H7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="I7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="J7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="K7" t="n">
         <v>100.231919120994</v>
@@ -4732,7 +4734,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N7" t="n">
         <v>633.8407713642671</v>
@@ -4747,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>885.4534357576423</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S7" t="n">
-        <v>885.4534357576423</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T7" t="n">
-        <v>653.1696224867825</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U7" t="n">
-        <v>420.8858092159227</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V7" t="n">
-        <v>188.6019959450629</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="W7" t="n">
-        <v>188.6019959450629</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="X7" t="n">
-        <v>188.6019959450629</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.6019959450629</v>
+        <v>18.39687801105217</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C8" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D8" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E8" t="n">
-        <v>455.276274010885</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F8" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G8" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H8" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I8" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
-        <v>52.01424425134721</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L8" t="n">
         <v>279.6756096381168</v>
       </c>
       <c r="M8" t="n">
-        <v>507.3369750248864</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N8" t="n">
         <v>507.3369750248864</v>
       </c>
       <c r="O8" t="n">
-        <v>507.3369750248864</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P8" t="n">
         <v>734.998340411656</v>
@@ -4847,7 +4849,7 @@
         <v>919.8439005526046</v>
       </c>
       <c r="Y8" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4883,13 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L9" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M9" t="n">
         <v>692.182535165835</v>
@@ -4896,37 +4898,37 @@
         <v>692.182535165835</v>
       </c>
       <c r="O9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U9" t="n">
-        <v>685.863714129311</v>
+        <v>839.6754200811793</v>
       </c>
       <c r="V9" t="n">
-        <v>463.3237125003781</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="W9" t="n">
-        <v>233.2064666336649</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X9" t="n">
-        <v>170.1932124520134</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.1932124520134</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.5238206779467</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="C10" t="n">
-        <v>343.9768666986336</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="D10" t="n">
-        <v>343.9768666986336</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="E10" t="n">
-        <v>343.9768666986336</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="F10" t="n">
-        <v>186.6509319116065</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="G10" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H10" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I10" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J10" t="n">
         <v>18.39687801105209</v>
@@ -4984,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S10" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T10" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U10" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="V10" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="W10" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="X10" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.731839369248</v>
+        <v>360.8430140968712</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C11" t="n">
-        <v>222.9924607400252</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9924607400252</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E11" t="n">
-        <v>222.9924607400252</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F11" t="n">
-        <v>222.9924607400252</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G11" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H11" t="n">
         <v>18.39687801105209</v>
@@ -5039,16 +5041,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J11" t="n">
-        <v>52.01424425134721</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K11" t="n">
-        <v>279.6756096381168</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L11" t="n">
-        <v>279.6756096381168</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M11" t="n">
-        <v>507.3369750248864</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N11" t="n">
         <v>507.3369750248864</v>
@@ -5075,16 +5077,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V11" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W11" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X11" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y11" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>467.1866530569586</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C12" t="n">
-        <v>409.3641423955522</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D12" t="n">
-        <v>279.2751750170326</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E12" t="n">
-        <v>142.8286841279203</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F12" t="n">
         <v>18.39687801105209</v>
@@ -5121,22 +5123,22 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K12" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L12" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M12" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N12" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O12" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P12" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q12" t="n">
         <v>919.8439005526046</v>
@@ -5151,19 +5153,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U12" t="n">
-        <v>919.8439005526046</v>
+        <v>839.6754200811793</v>
       </c>
       <c r="V12" t="n">
-        <v>697.3038989236717</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="W12" t="n">
-        <v>467.1866530569586</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X12" t="n">
-        <v>467.1866530569586</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y12" t="n">
-        <v>467.1866530569586</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.39687801105209</v>
+        <v>593.126827367731</v>
       </c>
       <c r="C13" t="n">
-        <v>18.39687801105209</v>
+        <v>593.126827367731</v>
       </c>
       <c r="D13" t="n">
-        <v>18.39687801105209</v>
+        <v>593.126827367731</v>
       </c>
       <c r="E13" t="n">
-        <v>18.39687801105209</v>
+        <v>593.126827367731</v>
       </c>
       <c r="F13" t="n">
-        <v>18.39687801105209</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G13" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H13" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I13" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J13" t="n">
         <v>18.39687801105209</v>
@@ -5221,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S13" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T13" t="n">
-        <v>687.5600872817448</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U13" t="n">
-        <v>455.276274010885</v>
+        <v>593.126827367731</v>
       </c>
       <c r="V13" t="n">
-        <v>222.9924607400252</v>
+        <v>593.126827367731</v>
       </c>
       <c r="W13" t="n">
-        <v>222.9924607400252</v>
+        <v>593.126827367731</v>
       </c>
       <c r="X13" t="n">
-        <v>222.9924607400252</v>
+        <v>593.126827367731</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.39687801105209</v>
+        <v>593.126827367731</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5278,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J14" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K14" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L14" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M14" t="n">
+        <v>52.01424425134721</v>
+      </c>
+      <c r="N14" t="n">
         <v>279.6756096381168</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="O14" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P14" t="n">
         <v>734.998340411656</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C15" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D15" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E15" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F15" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G15" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H15" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I15" t="n">
         <v>18.39687801105209</v>
@@ -5364,7 +5366,7 @@
         <v>236.8598043922958</v>
       </c>
       <c r="M15" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N15" t="n">
         <v>464.5211697790654</v>
@@ -5373,34 +5375,34 @@
         <v>692.182535165835</v>
       </c>
       <c r="P15" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q15" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R15" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S15" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T15" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U15" t="n">
-        <v>465.4484439766634</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V15" t="n">
-        <v>465.4484439766634</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W15" t="n">
-        <v>465.4484439766634</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X15" t="n">
-        <v>276.1413663266751</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y15" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D16" t="n">
-        <v>18.39687801105209</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="E16" t="n">
-        <v>18.39687801105209</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F16" t="n">
-        <v>18.39687801105209</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G16" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H16" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I16" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J16" t="n">
         <v>18.39687801105209</v>
@@ -5458,28 +5460,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R16" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S16" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T16" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U16" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V16" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.26920279687423</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="C17" t="n">
-        <v>27.26920279687423</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D17" t="n">
-        <v>27.26920279687423</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E17" t="n">
-        <v>27.26920279687423</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F17" t="n">
-        <v>27.26920279687423</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G17" t="n">
-        <v>27.26920279687423</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H17" t="n">
-        <v>27.26920279687423</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0466509198802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>390.7080163066498</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>390.7080163066498</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>390.7080163066498</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>390.7080163066498</v>
+        <v>1740.763344043902</v>
       </c>
       <c r="O17" t="n">
-        <v>507.3369750248864</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P17" t="n">
-        <v>734.998340411656</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>881.8509868381266</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>715.3374317791771</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>491.8368293385938</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>491.8368293385938</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>491.8368293385938</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>259.553016067734</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>259.553016067734</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
-        <v>27.26920279687423</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.39687801105209</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C18" t="n">
-        <v>18.39687801105209</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D18" t="n">
-        <v>18.39687801105209</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E18" t="n">
-        <v>18.39687801105209</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F18" t="n">
-        <v>18.39687801105209</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G18" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H18" t="n">
-        <v>18.39687801105209</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>131.5118602307795</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>131.5118602307795</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>359.1732256175491</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>586.8345910043187</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>692.182535165835</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>692.182535165835</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>692.182535165835</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>919.8439005526046</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>919.8439005526046</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>742.8600887515131</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>532.7969454301549</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>310.256943801222</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
-        <v>80.1396979345088</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>18.39687801105209</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.39687801105209</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N19" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O19" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P19" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>687.5600872817448</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>455.276274010885</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>222.9924607400252</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>371.396020535053</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C20" t="n">
-        <v>371.396020535053</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
         <v>406.2953261290054</v>
@@ -5759,43 +5761,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1397.79762054739</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N20" t="n">
-        <v>1925.608904184852</v>
+        <v>1427.426901484996</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1867.466502377325</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2215.653994508847</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636597</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="U20" t="n">
-        <v>2142.147902636597</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="V20" t="n">
-        <v>1928.833115424504</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="W20" t="n">
-        <v>1557.834080392792</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.381475325849</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y20" t="n">
-        <v>771.8907662464499</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631995</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.31297010154361</v>
+        <v>206.5984775591512</v>
       </c>
       <c r="C22" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5938,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4295905742738</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="X22" t="n">
-        <v>431.3492683572568</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2372071739002</v>
+        <v>206.5984775591512</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>449.8964949849991</v>
+        <v>1402.149495227434</v>
       </c>
       <c r="C23" t="n">
-        <v>449.8964949849991</v>
+        <v>1008.973993730365</v>
       </c>
       <c r="D23" t="n">
-        <v>449.8964949849991</v>
+        <v>1008.973993730365</v>
       </c>
       <c r="E23" t="n">
-        <v>47.31297010154361</v>
+        <v>1008.973993730365</v>
       </c>
       <c r="F23" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U23" t="n">
-        <v>2349.440399170932</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V23" t="n">
-        <v>2007.33358987445</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="W23" t="n">
-        <v>1636.334554842738</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="X23" t="n">
-        <v>1246.881949775795</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="Y23" t="n">
-        <v>850.3912406963959</v>
+        <v>1802.644240938831</v>
       </c>
     </row>
     <row r="24">
@@ -6051,34 +6053,34 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G24" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>623.643757208308</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1209.14176221491</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O24" t="n">
         <v>1725.662044805891</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2232.220438075893</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C25" t="n">
-        <v>2232.220438075893</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D25" t="n">
-        <v>2076.587324978408</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E25" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F25" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G25" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H25" t="n">
-        <v>1597.29590789855</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X25" t="n">
-        <v>2365.64850507718</v>
+        <v>937.0300931484951</v>
       </c>
       <c r="Y25" t="n">
-        <v>2365.64850507718</v>
+        <v>713.9180319651384</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1141.217531504963</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="C26" t="n">
-        <v>748.0420300078936</v>
+        <v>1003.614429686515</v>
       </c>
       <c r="D26" t="n">
-        <v>362.6009012245613</v>
+        <v>618.1733009031823</v>
       </c>
       <c r="E26" t="n">
-        <v>362.6009012245613</v>
+        <v>215.5897760197268</v>
       </c>
       <c r="F26" t="n">
-        <v>362.6009012245613</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>2118.077574438405</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2327.655591362702</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V26" t="n">
-        <v>2327.655591362702</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W26" t="n">
-        <v>2327.655591362702</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X26" t="n">
-        <v>1938.202986295759</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="Y26" t="n">
-        <v>1541.71227721636</v>
+        <v>1396.789931183584</v>
       </c>
     </row>
     <row r="27">
@@ -6288,46 +6290,46 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G27" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L27" t="n">
         <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631995</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
         <v>2206.800784875113</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6412,22 +6414,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>713.0409408113302</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>447.0615956321544</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W28" t="n">
-        <v>163.7311935633321</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>981.8456520689554</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C29" t="n">
-        <v>588.6701505718859</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D29" t="n">
-        <v>203.2290217885536</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1044.265390756362</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>1572.076674393824</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U29" t="n">
-        <v>2109.895775511779</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="V29" t="n">
-        <v>1767.788966215297</v>
+        <v>1595.534624566687</v>
       </c>
       <c r="W29" t="n">
-        <v>1767.788966215297</v>
+        <v>1595.534624566687</v>
       </c>
       <c r="X29" t="n">
-        <v>1378.336361148354</v>
+        <v>1595.534624566687</v>
       </c>
       <c r="Y29" t="n">
-        <v>981.8456520689554</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F30" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K30" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L30" t="n">
-        <v>480.1670983834975</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>623.6437572083089</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6585,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1464.201482535628</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.201482535628</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.201482535628</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.201482535628</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.64850507718</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.64850507718</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="W31" t="n">
-        <v>2082.318103008358</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="X31" t="n">
-        <v>1848.237780791341</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1625.125719607984</v>
+        <v>194.5257718883706</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1398.303551859626</v>
+        <v>1682.450256730357</v>
       </c>
       <c r="C32" t="n">
-        <v>1005.128050362556</v>
+        <v>1682.450256730357</v>
       </c>
       <c r="D32" t="n">
-        <v>1005.128050362556</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E32" t="n">
-        <v>602.544525479101</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F32" t="n">
-        <v>185.6500870090788</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G32" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>173.6308686433316</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>173.6308686433316</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L32" t="n">
-        <v>666.9511603618604</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M32" t="n">
-        <v>1212.952060406441</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N32" t="n">
-        <v>1740.763344043903</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O32" t="n">
-        <v>2180.802944936232</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T32" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U32" t="n">
-        <v>1794.794260939025</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="V32" t="n">
-        <v>1794.794260939025</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="W32" t="n">
-        <v>1794.794260939025</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="X32" t="n">
-        <v>1794.794260939025</v>
+        <v>1682.450256730357</v>
       </c>
       <c r="Y32" t="n">
-        <v>1398.303551859626</v>
+        <v>1682.450256730357</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>160.427952321271</v>
+        <v>54.7036168026591</v>
       </c>
       <c r="K33" t="n">
-        <v>160.427952321271</v>
+        <v>374.4427628648855</v>
       </c>
       <c r="L33" t="n">
-        <v>643.9940382195842</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="M33" t="n">
-        <v>1229.492043226187</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.990048232789</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.51033082377</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
         <v>2341.731461975244</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.31297010154361</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="C34" t="n">
-        <v>47.31297010154361</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D34" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E34" t="n">
-        <v>47.31297010154361</v>
+        <v>204.6389048885706</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6880,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V34" t="n">
-        <v>682.7806474639203</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W34" t="n">
-        <v>399.450245395098</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X34" t="n">
-        <v>165.3699231780811</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>843.0719964820685</v>
+        <v>1085.534359978639</v>
       </c>
       <c r="C35" t="n">
-        <v>449.8964949849991</v>
+        <v>1085.534359978639</v>
       </c>
       <c r="D35" t="n">
-        <v>449.8964949849991</v>
+        <v>1085.534359978639</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>1085.534359978639</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L35" t="n">
-        <v>758.8032691226673</v>
+        <v>685.2830347289005</v>
       </c>
       <c r="M35" t="n">
-        <v>1304.804169167248</v>
+        <v>1212.95206040644</v>
       </c>
       <c r="N35" t="n">
-        <v>1832.61545280471</v>
+        <v>1740.763344043902</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U35" t="n">
-        <v>2353.163295601059</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V35" t="n">
-        <v>2011.056486304577</v>
+        <v>1857.028140721749</v>
       </c>
       <c r="W35" t="n">
-        <v>1640.057451272864</v>
+        <v>1486.029105690036</v>
       </c>
       <c r="X35" t="n">
-        <v>1640.057451272864</v>
+        <v>1486.029105690036</v>
       </c>
       <c r="Y35" t="n">
-        <v>1243.566742193465</v>
+        <v>1486.029105690036</v>
       </c>
     </row>
     <row r="36">
@@ -6999,25 +7001,25 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G36" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L36" t="n">
         <v>530.8790559998569</v>
@@ -7026,13 +7028,13 @@
         <v>1116.377061006459</v>
       </c>
       <c r="N36" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O36" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S37" t="n">
-        <v>745.9439088256454</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="T37" t="n">
-        <v>510.2248569938795</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="U37" t="n">
-        <v>224.7860652357804</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="V37" t="n">
-        <v>47.31297010154361</v>
+        <v>1981.612206821466</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>1698.281804752643</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1673.129190464088</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="C38" t="n">
-        <v>1279.953688967018</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D38" t="n">
-        <v>1279.953688967018</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E38" t="n">
-        <v>877.3701640835627</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M38" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N38" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O38" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2252.571100210592</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2252.571100210592</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>2252.571100210592</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1910.46429091411</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>1539.465255882398</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.64850507718</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="Y38" t="n">
-        <v>2073.623936175485</v>
+        <v>1150.012650815455</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J39" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K39" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L39" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M39" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N39" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>272.0433369124336</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>272.0433369124336</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7360,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>427.6021490532311</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>427.6021490532311</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W40" t="n">
-        <v>427.6021490532311</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1675.412152717902</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C41" t="n">
-        <v>1282.236651220833</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D41" t="n">
-        <v>1282.236651220833</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E41" t="n">
-        <v>1282.236651220833</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F41" t="n">
-        <v>865.3422127508103</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G41" t="n">
         <v>509.7331374425881</v>
@@ -7406,7 +7408,7 @@
         <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
@@ -7418,43 +7420,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1044.265390756362</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S41" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T41" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U41" t="n">
-        <v>2071.902861797301</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V41" t="n">
-        <v>2071.902861797301</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.902861797301</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.902861797301</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="Y41" t="n">
-        <v>1675.412152717902</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K42" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L42" t="n">
-        <v>160.427952321271</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M42" t="n">
-        <v>623.6437572083089</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7597,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>663.3212008849971</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>397.3418557058213</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.9924607400253</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="C44" t="n">
-        <v>18.3968780110521</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="D44" t="n">
-        <v>18.3968780110521</v>
+        <v>583.3417311862408</v>
       </c>
       <c r="E44" t="n">
-        <v>18.3968780110521</v>
+        <v>583.3417311862408</v>
       </c>
       <c r="F44" t="n">
-        <v>18.3968780110521</v>
+        <v>583.3417311862408</v>
       </c>
       <c r="G44" t="n">
-        <v>18.3968780110521</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H44" t="n">
-        <v>18.3968780110521</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>18.3968780110521</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>18.3968780110521</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>246.0582433978217</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>473.7196087845914</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>701.380974171361</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>919.8439005526047</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S44" t="n">
-        <v>919.8439005526047</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T44" t="n">
-        <v>919.8439005526047</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U44" t="n">
-        <v>919.8439005526047</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V44" t="n">
-        <v>687.5600872817449</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W44" t="n">
-        <v>455.2762740108851</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X44" t="n">
-        <v>222.9924607400253</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.9924607400253</v>
+        <v>968.7828599695731</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>435.5865667185918</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>284.932336278684</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>154.8433689001644</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>18.3968780110521</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>18.3968780110521</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>18.3968780110521</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>18.3968780110521</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I45" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K45" t="n">
-        <v>236.8598043922958</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L45" t="n">
-        <v>464.5211697790655</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M45" t="n">
-        <v>692.1825351658351</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N45" t="n">
-        <v>692.1825351658351</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>692.1825351658351</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>692.1825351658351</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>919.8439005526047</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>919.8439005526047</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>919.8439005526047</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>919.8439005526047</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>919.8439005526047</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>804.2078612930729</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>614.9007836430847</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>435.5865667185918</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>450.6511373330579</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>796.5455384059752</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>916.4217041825538</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>795.9429111851817</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>593.126827367731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>360.8430140968712</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U46" t="n">
-        <v>128.5592008260114</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V46" t="n">
-        <v>18.3968780110521</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
-        <v>267.3708664324162</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,25 +8060,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q3" t="n">
-        <v>197.4002179655265</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,13 +8218,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>373.0193783173885</v>
+        <v>177.0153387754951</v>
       </c>
       <c r="L5" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>183.6819871939849</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
@@ -8295,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N6" t="n">
         <v>191.7841776637791</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>177.0153387754951</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>383.2091448686429</v>
+        <v>271.0551987388116</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>319.5579104714845</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L9" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>151.6367735386038</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M11" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
-        <v>149.1184913377841</v>
+        <v>183.0754269340418</v>
       </c>
       <c r="O11" t="n">
         <v>149.5638374240964</v>
@@ -8769,25 +8771,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>319.5579104714845</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L12" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M12" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P12" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
         <v>143.0584031792374</v>
@@ -8933,7 +8935,7 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
-        <v>267.5320806060471</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N14" t="n">
         <v>379.0794664759352</v>
@@ -8942,7 +8944,7 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9012,19 +9014,19 @@
         <v>310.7299694642351</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N15" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q15" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>373.0193783173885</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>447.2465985618117</v>
       </c>
       <c r="O17" t="n">
-        <v>267.3708664324162</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>322.3480971874631</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>191.7841776637791</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9409,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>652.9391957389953</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9416,10 +9418,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>296.0083050530717</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9486,10 +9488,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>422.8212561536983</v>
+        <v>186.088840441687</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9644,19 +9646,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600596</v>
+        <v>412.7343206674141</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,22 +9716,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>674.5394322581649</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>263.5850982253572</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9887,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>399.6354845339704</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9960,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>422.8212561536984</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10118,19 +10120,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>412.734320667415</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10188,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>237.3130400541719</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>92.83741255226305</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>245.273674853243</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10364,10 +10366,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>89.90975703142982</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>121.5663691156888</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10586,22 +10588,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>363.2059172909298</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>682.7240674336258</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10671,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>179.0738312465417</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10823,13 +10825,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>281.329912376922</v>
       </c>
       <c r="M38" t="n">
-        <v>155.1237765063188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10841,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>507.6329599720908</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11066,19 +11068,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>500.9472399802273</v>
+        <v>487.848403846782</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>560.2818744604613</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>92.83741255226305</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>383.2091448686429</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>379.6860267358784</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>379.0794664759353</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>370.2334600314133</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11376,25 +11378,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>310.2665579406503</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3480971874631</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>320.9491282940652</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>193.9401713525995</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -22562,10 +22564,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>90.55715962316265</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="3">
@@ -22626,16 +22628,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>196.1172237195774</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -22692,7 +22694,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.1535437409563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22702,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22762,16 +22764,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>235.0458287634608</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22838,16 +22840,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>183.0084521145903</v>
+        <v>183.0084521145902</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -22866,7 +22868,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -22875,13 +22877,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>51.81185891223681</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>83.49508829187052</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -22926,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22942,7 +22944,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.6154193267361</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>3.400886175297046</v>
@@ -22999,7 +23001,7 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>33.35857658923285</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23024,22 +23026,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>179.0370905938155</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G8" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>255.2463387659507</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
         <v>149.1476881355087</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -23154,7 +23156,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23163,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>125.0308852336535</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>2.631582315150695</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -23188,19 +23190,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>143.3115727461609</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -23245,7 +23247,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -23258,22 +23260,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>179.0370905938154</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H11" t="n">
-        <v>118.2925930274908</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23315,7 +23317,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23324,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23337,16 +23339,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>91.90340258071643</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
         <v>118.8592197488542</v>
@@ -23391,7 +23393,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9625118881446</v>
+        <v>128.5957162214335</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23400,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23425,19 +23427,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>69.10327304716648</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23482,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.33131366983966</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23586,13 +23588,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
-        <v>90.58422656108941</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="16">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>153.4742138855135</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23732,25 +23734,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>153.7885616961723</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>128.1701442004959</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23792,13 +23794,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>126.2886151492663</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,16 +23943,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>3.400886175297046</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
-        <v>52.62342870236691</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>33.35857658923285</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>77.94747114645074</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23984,7 +23986,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>73.97896411275033</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>127.5041018635451</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.04094380275524</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>40.88490184379822</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24148,7 +24150,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>327.5081743173</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>237.1491774225614</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.26215217311392</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -24427,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>220.1269184951917</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>246.1314562263206</v>
       </c>
       <c r="G26" t="n">
-        <v>96.89607614508935</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24497,19 +24499,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24619,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>65.73198240919206</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24652,10 +24654,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>116.4854777676762</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>244.200798464481</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>27.10662629999354</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.04094380275501</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24847,7 +24849,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>40.08648914235714</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -24859,7 +24861,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24919,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>303.9573353389681</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>111.7765010748442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24980,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>45.9211138417275</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25132,16 +25134,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.004557025751</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>114.7596659930487</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25202,13 +25204,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>240.8348448883868</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>87.62118754448957</v>
+        <v>5.785595927976317</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>90.51477326777162</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -25448,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>103.4214787759262</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25555,16 +25557,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>98.01221574688876</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25600,19 +25602,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25628,19 +25630,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>56.97814340173693</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>319.6532941823887</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>130.0544759923357</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25837,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25865,10 +25867,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>186.6941195804152</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25877,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>336.1586201506607</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>108.7247660653656</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>137.3280695432442</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>155.5971038781225</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>113.3363945411095</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>3.400886175297018</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
-        <v>52.62342870236688</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>154.2588521405743</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>421144.2529677361</v>
+        <v>421144.2529677363</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>421144.2529677364</v>
+        <v>421144.2529677363</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421144.2529677362</v>
+        <v>421144.2529677363</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421144.2529677363</v>
+        <v>678189.4116270847</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678189.4116270846</v>
+        <v>678189.4116270842</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678189.4116270849</v>
+        <v>678189.4116270846</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678189.4116270848</v>
+        <v>678189.4116270841</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678189.4116270848</v>
+        <v>678189.4116270847</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678189.4116270846</v>
+        <v>678189.4116270848</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678189.4116270844</v>
+        <v>678189.4116270848</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421144.2529677363</v>
+        <v>678189.4116270848</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98205.26357376791</v>
+        <v>98205.26357376794</v>
       </c>
       <c r="C2" t="n">
-        <v>98205.26357376791</v>
+        <v>98205.26357376795</v>
       </c>
       <c r="D2" t="n">
         <v>98205.26357376792</v>
       </c>
       <c r="E2" t="n">
-        <v>98205.26357376791</v>
+        <v>98205.26357376789</v>
       </c>
       <c r="F2" t="n">
-        <v>98205.26357376792</v>
+        <v>98205.26357376789</v>
       </c>
       <c r="G2" t="n">
-        <v>98205.26357376794</v>
+        <v>158101.391659894</v>
       </c>
       <c r="H2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="I2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="J2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="K2" t="n">
         <v>158101.3916598939</v>
       </c>
       <c r="L2" t="n">
-        <v>158101.3916598941</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="M2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="N2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="O2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="P2" t="n">
-        <v>98205.26357376789</v>
+        <v>158101.391659894</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99068.33875777952</v>
       </c>
       <c r="H3" t="n">
-        <v>97522.77363554281</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>86983.58097086086</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,10 +26432,10 @@
         <v>28522.60968068128</v>
       </c>
       <c r="G4" t="n">
-        <v>28522.60968068128</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="H4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="I4" t="n">
         <v>46245.16569024821</v>
@@ -26442,22 +26444,22 @@
         <v>46245.16569024821</v>
       </c>
       <c r="K4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.16569024819</v>
       </c>
       <c r="L4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.16569024819</v>
       </c>
       <c r="M4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="N4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="O4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.16569024819</v>
       </c>
       <c r="P4" t="n">
-        <v>28522.60968068128</v>
+        <v>46245.16569024819</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54991.78526653558</v>
+        <v>-54991.78526653556</v>
       </c>
       <c r="C6" t="n">
-        <v>22073.42660468703</v>
+        <v>22073.42660468709</v>
       </c>
       <c r="D6" t="n">
-        <v>22073.42660468705</v>
+        <v>22073.42660468706</v>
       </c>
       <c r="E6" t="n">
+        <v>55701.02660468702</v>
+      </c>
+      <c r="F6" t="n">
         <v>55701.02660468703</v>
       </c>
-      <c r="F6" t="n">
-        <v>55701.02660468705</v>
-      </c>
       <c r="G6" t="n">
-        <v>55701.02660468706</v>
+        <v>-23169.97006530684</v>
       </c>
       <c r="H6" t="n">
-        <v>-21624.40494307013</v>
+        <v>75898.36869247265</v>
       </c>
       <c r="I6" t="n">
-        <v>75898.36869247262</v>
+        <v>75898.36869247261</v>
       </c>
       <c r="J6" t="n">
-        <v>15730.45931342623</v>
+        <v>15730.45931342614</v>
       </c>
       <c r="K6" t="n">
         <v>75898.36869247259</v>
       </c>
       <c r="L6" t="n">
-        <v>75898.36869247271</v>
+        <v>75898.36869247262</v>
       </c>
       <c r="M6" t="n">
+        <v>75898.36869247264</v>
+      </c>
+      <c r="N6" t="n">
         <v>75898.36869247265</v>
       </c>
-      <c r="N6" t="n">
-        <v>75898.36869247259</v>
-      </c>
       <c r="O6" t="n">
+        <v>-11085.21227838821</v>
+      </c>
+      <c r="P6" t="n">
         <v>75898.36869247268</v>
-      </c>
-      <c r="P6" t="n">
-        <v>55701.02660468702</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="H4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="N2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>117.8070290083198</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,25 +34780,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>106.4120648096124</v>
+      </c>
+      <c r="O3" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>106.4120648096125</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>229.9609751381512</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="L5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
-        <v>33.95693559625767</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N6" t="n">
         <v>106.4120648096125</v>
       </c>
       <c r="O6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>33.95693559625767</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M12" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>117.8070290083198</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="N14" t="n">
         <v>229.9609751381512</v>
@@ -35662,7 +35664,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35732,19 +35734,19 @@
         <v>220.6696226073169</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N15" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q15" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>229.9609751381512</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>298.1281072240276</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8070290083198</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>106.4120648096125</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>503.2141441412681</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36136,10 +36138,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>151.5096066346796</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>330.4341341043864</v>
+        <v>93.70171839237511</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36364,19 +36366,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359632</v>
+        <v>263.1704832433177</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>582.152310208853</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>178.2129853711906</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36607,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>250.071647109874</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>330.4341341043865</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,19 +36840,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>263.1704832433186</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>144.92591800486</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698096393</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>127.5938369108969</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,10 +37086,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>7.465299698096472</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>34.48300429637414</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,22 +37308,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>209.9577475604382</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>532.9990158358986</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37391,19 +37393,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>93.701718392375</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464304</v>
       </c>
       <c r="M38" t="n">
-        <v>5.39872490859157</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37561,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,19 +37630,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>414.9454010832019</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,19 +37788,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>351.8287486424433</v>
+        <v>338.729912508998</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>467.8947524111494</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698096393</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>229.9609751381512</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>229.9609751381512</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>229.9609751381512</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>220.6696226073169</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>220.6696226073169</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>229.9609751381512</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>229.9609751381512</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283930.8998657203</v>
+        <v>276228.5424138787</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6037395.839817924</v>
+        <v>6037395.839817923</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12249539.32494794</v>
+        <v>12249539.32494795</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6651895.38360337</v>
+        <v>6651895.383603371</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.08822281599025586</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.421296322029855</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>24.19737789306625</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="X5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>202.5496269016835</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>211.2450056236571</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>91.71888539121009</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>96.79714219837759</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.714667906381443</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>8.783601537963921</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S8" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T8" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="F8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>79.36679566671111</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>77.44124311004779</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.25994061538802</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>229.9609751381512</v>
+        <v>211.2450056236572</v>
       </c>
       <c r="F11" t="n">
         <v>229.9609751381512</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>148.9249231718977</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>79.36679566671111</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1514,10 +1514,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>34.04656014701273</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>86.64940239199029</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,73 +1606,73 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>211.2450056236571</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>202.5496269016835</v>
-      </c>
       <c r="X14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>229.9609751381512</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>181.4566208931122</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.92535853381431</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>133.4575500112405</v>
       </c>
       <c r="C17" t="n">
-        <v>235.4551847859264</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1858,13 +1858,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540492</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>331.4659253238894</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>147.2866323034272</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2177,10 +2177,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
-        <v>87.41444223540492</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>127.6181649108725</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>77.46337679815042</v>
       </c>
       <c r="F23" t="n">
-        <v>85.21731976802202</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>166.5940378590014</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>381.1488810405471</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>132.3950220032045</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2800,16 +2800,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>170.9307155829877</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>365.4191756886113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>115.6661862967996</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>181.5440065831534</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>77.62938215653082</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>23.46469688151576</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.4348246626608</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>72.55567497641754</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>221.25724435709</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>297.9658280922733</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
@@ -3286,7 +3286,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>132.3950220032045</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>257.5339557994077</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>74.33364624058832</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3568,7 +3568,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>178.6874769548538</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>66.03149870010083</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>90.49856892715118</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.87250780621618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T42" t="n">
         <v>175.2139736830806</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>113.1667354347867</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>72.87250780621618</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>106.7570354812297</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.61153143263806</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C2" t="n">
         <v>18.39687801105209</v>
@@ -4354,28 +4354,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T2" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U2" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V2" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W2" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X2" t="n">
-        <v>455.276274010885</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.9924607400252</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.39687801105209</v>
+        <v>537.9303202449302</v>
       </c>
       <c r="C3" t="n">
-        <v>18.39687801105209</v>
+        <v>529.4239603236879</v>
       </c>
       <c r="D3" t="n">
-        <v>18.39687801105209</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="E3" t="n">
-        <v>18.39687801105209</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F3" t="n">
-        <v>18.39687801105209</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G3" t="n">
         <v>18.39687801105209</v>
@@ -4409,22 +4409,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K3" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L3" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M3" t="n">
-        <v>131.5118602307795</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N3" t="n">
-        <v>236.8598043922958</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O3" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P3" t="n">
         <v>692.182535165835</v>
@@ -4433,28 +4433,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S3" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T3" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U3" t="n">
-        <v>373.9492252280883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V3" t="n">
-        <v>349.5074293765062</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W3" t="n">
-        <v>349.5074293765062</v>
+        <v>689.7266546858915</v>
       </c>
       <c r="X3" t="n">
-        <v>349.5074293765062</v>
+        <v>689.7266546858915</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.1932124520134</v>
+        <v>689.7266546858915</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D4" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="K4" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S4" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T4" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U4" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="V4" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="W4" t="n">
-        <v>919.8439005526046</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="X4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C5" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D5" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E5" t="n">
         <v>18.39687801105209</v>
@@ -4567,16 +4567,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>52.01424425134721</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
-        <v>279.6756096381168</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M5" t="n">
-        <v>507.3369750248864</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N5" t="n">
         <v>507.3369750248864</v>
@@ -4597,22 +4597,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U5" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="V5" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="W5" t="n">
-        <v>919.8439005526046</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="X5" t="n">
-        <v>715.2483178236314</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="Y5" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.39687801105209</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="C6" t="n">
         <v>18.39687801105209</v>
@@ -4652,19 +4652,19 @@
         <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>586.8345910043187</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M6" t="n">
-        <v>814.4959563910883</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N6" t="n">
-        <v>919.8439005526046</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O6" t="n">
-        <v>919.8439005526046</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P6" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
@@ -4673,25 +4673,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T6" t="n">
-        <v>827.1985617736045</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U6" t="n">
-        <v>617.1354184522463</v>
+        <v>510.1545205419096</v>
       </c>
       <c r="V6" t="n">
-        <v>617.1354184522463</v>
+        <v>510.1545205419096</v>
       </c>
       <c r="W6" t="n">
-        <v>387.0181725855332</v>
+        <v>510.1545205419096</v>
       </c>
       <c r="X6" t="n">
-        <v>197.7110949355448</v>
+        <v>320.8474428919212</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.39687801105209</v>
+        <v>320.8474428919212</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.39687801105217</v>
+        <v>502.3520685904435</v>
       </c>
       <c r="C7" t="n">
-        <v>18.39687801105217</v>
+        <v>502.3520685904435</v>
       </c>
       <c r="D7" t="n">
-        <v>18.39687801105217</v>
+        <v>346.7189554929583</v>
       </c>
       <c r="E7" t="n">
-        <v>18.39687801105217</v>
+        <v>346.7189554929583</v>
       </c>
       <c r="F7" t="n">
-        <v>18.39687801105217</v>
+        <v>189.3930207059312</v>
       </c>
       <c r="G7" t="n">
-        <v>18.39687801105217</v>
+        <v>21.13896680537678</v>
       </c>
       <c r="H7" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I7" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J7" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K7" t="n">
         <v>100.231919120994</v>
@@ -4734,7 +4734,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N7" t="n">
         <v>633.8407713642671</v>
@@ -4749,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T7" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5592008260114</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V7" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W7" t="n">
-        <v>18.39687801105217</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X7" t="n">
-        <v>18.39687801105217</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.39687801105217</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C8" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D8" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E8" t="n">
         <v>250.6806912819119</v>
       </c>
       <c r="F8" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G8" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4807,19 +4807,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L8" t="n">
-        <v>279.6756096381168</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M8" t="n">
-        <v>279.6756096381168</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N8" t="n">
-        <v>507.3369750248864</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="O8" t="n">
-        <v>734.998340411656</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P8" t="n">
         <v>734.998340411656</v>
@@ -4828,28 +4828,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="X8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.8439005526046</v>
+        <v>259.553016067734</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.39687801105209</v>
+        <v>410.6023218939274</v>
       </c>
       <c r="C9" t="n">
-        <v>18.39687801105209</v>
+        <v>410.6023218939274</v>
       </c>
       <c r="D9" t="n">
-        <v>18.39687801105209</v>
+        <v>280.5133545154077</v>
       </c>
       <c r="E9" t="n">
-        <v>18.39687801105209</v>
+        <v>280.5133545154077</v>
       </c>
       <c r="F9" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="G9" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H9" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4886,49 +4886,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L9" t="n">
-        <v>464.5211697790654</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M9" t="n">
-        <v>692.182535165835</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N9" t="n">
-        <v>692.182535165835</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="O9" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P9" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S9" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T9" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="U9" t="n">
-        <v>839.6754200811793</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="V9" t="n">
-        <v>617.1354184522463</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="W9" t="n">
-        <v>387.0181725855332</v>
+        <v>488.8257997828646</v>
       </c>
       <c r="X9" t="n">
-        <v>197.7110949355448</v>
+        <v>410.6023218939274</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.39687801105209</v>
+        <v>410.6023218939274</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C10" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D10" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E10" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F10" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H10" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I10" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J10" t="n">
         <v>18.39687801105209</v>
@@ -4995,19 +4995,19 @@
         <v>360.8430140968712</v>
       </c>
       <c r="U10" t="n">
-        <v>360.8430140968712</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V10" t="n">
-        <v>360.8430140968712</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="W10" t="n">
-        <v>360.8430140968712</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="X10" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="C11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="D11" t="n">
-        <v>715.2483178236314</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="E11" t="n">
         <v>482.9645045527716</v>
@@ -5041,25 +5041,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J11" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K11" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L11" t="n">
-        <v>473.7196087845913</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M11" t="n">
-        <v>473.7196087845913</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N11" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O11" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P11" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q11" t="n">
         <v>919.8439005526046</v>
@@ -5071,22 +5071,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="V11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="W11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="X11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="Y11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="C12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="D12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="E12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="F12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="G12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H12" t="n">
         <v>18.39687801105209</v>
@@ -5120,22 +5120,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J12" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K12" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M12" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="N12" t="n">
         <v>236.8598043922958</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="M12" t="n">
-        <v>464.5211697790654</v>
-      </c>
-      <c r="N12" t="n">
-        <v>464.5211697790654</v>
-      </c>
-      <c r="O12" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="P12" t="n">
         <v>692.182535165835</v>
@@ -5153,19 +5153,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U12" t="n">
-        <v>839.6754200811793</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V12" t="n">
-        <v>617.1354184522463</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W12" t="n">
-        <v>387.0181725855332</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X12" t="n">
-        <v>197.7110949355448</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.39687801105209</v>
+        <v>257.1235097356004</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>593.126827367731</v>
+        <v>188.6019959450629</v>
       </c>
       <c r="C13" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D13" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E13" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F13" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G13" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H13" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J13" t="n">
         <v>18.39687801105209</v>
@@ -5223,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S13" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T13" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U13" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V13" t="n">
-        <v>593.126827367731</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W13" t="n">
-        <v>593.126827367731</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X13" t="n">
-        <v>593.126827367731</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.126827367731</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.39687801105209</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="C14" t="n">
-        <v>18.39687801105209</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="D14" t="n">
-        <v>18.39687801105209</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="E14" t="n">
         <v>18.39687801105209</v>
@@ -5281,22 +5281,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K14" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L14" t="n">
-        <v>18.39687801105209</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M14" t="n">
-        <v>52.01424425134721</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N14" t="n">
-        <v>279.6756096381168</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O14" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P14" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
@@ -5308,22 +5308,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T14" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U14" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="V14" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="W14" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="X14" t="n">
-        <v>482.9645045527716</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="Y14" t="n">
-        <v>250.6806912819119</v>
+        <v>231.7756715703017</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J15" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K15" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L15" t="n">
-        <v>236.8598043922958</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M15" t="n">
-        <v>464.5211697790654</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N15" t="n">
         <v>464.5211697790654</v>
@@ -5387,22 +5387,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T15" t="n">
-        <v>919.8439005526046</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U15" t="n">
-        <v>709.7807572312464</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2407556023135</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="W15" t="n">
-        <v>257.1235097356004</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="X15" t="n">
-        <v>67.81643208561201</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.39687801105209</v>
+        <v>170.1932124520134</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D16" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E16" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F16" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H16" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I16" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J16" t="n">
         <v>18.39687801105209</v>
@@ -5463,25 +5463,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S16" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T16" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U16" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="V16" t="n">
-        <v>919.8439005526046</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="W16" t="n">
-        <v>919.8439005526046</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2365.648505077179</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="C17" t="n">
-        <v>2127.814985091395</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="D17" t="n">
-        <v>1742.373856308063</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E17" t="n">
-        <v>1339.790331424607</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F17" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G17" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N17" t="n">
-        <v>1740.763344043902</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O17" t="n">
-        <v>2180.802944936231</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>1391.049144593925</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>1001.596539526981</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.648505077179</v>
+        <v>1001.596539526981</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5712,13 +5712,13 @@
         <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>825.9296003819453</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="C20" t="n">
-        <v>432.7540988848759</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154359</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>899.6156178475343</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1427.426901484996</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O20" t="n">
-        <v>1867.466502377325</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2215.653994508847</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2012.367660239684</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>2012.367660239684</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V20" t="n">
-        <v>2012.367660239684</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W20" t="n">
-        <v>2012.367660239684</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.915055172741</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="Y20" t="n">
-        <v>1226.424346093342</v>
+        <v>1170.151689752058</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>623.6437572083082</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X21" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.5984775591512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>713.0409408113302</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>713.0409408113302</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>429.7105387425078</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>429.7105387425078</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.5984775591512</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1402.149495227434</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="C23" t="n">
-        <v>1008.973993730365</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="D23" t="n">
-        <v>1008.973993730365</v>
+        <v>449.6418556846999</v>
       </c>
       <c r="E23" t="n">
-        <v>1008.973993730365</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F23" t="n">
-        <v>922.895892954585</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G23" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1044.265390756362</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>1572.076674393824</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O23" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T23" t="n">
-        <v>2199.13495001823</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U23" t="n">
-        <v>2199.13495001823</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V23" t="n">
-        <v>2199.13495001823</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W23" t="n">
-        <v>2199.13495001823</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X23" t="n">
-        <v>2199.13495001823</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="Y23" t="n">
-        <v>1802.644240938831</v>
+        <v>835.0829844680321</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K24" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L24" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O24" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P24" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6113,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="25">
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>528.7100132738371</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6177,22 +6177,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>937.0300931484951</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>713.9180319651384</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1396.789931183584</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="C26" t="n">
-        <v>1003.614429686515</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="D26" t="n">
-        <v>618.1733009031823</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="E26" t="n">
-        <v>215.5897760197268</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154359</v>
+        <v>756.3948902729793</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511778</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.788966215297</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W26" t="n">
-        <v>1396.789931183584</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X26" t="n">
-        <v>1396.789931183584</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="Y26" t="n">
-        <v>1396.789931183584</v>
+        <v>1173.289328743002</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154358</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114.011453636999</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="C28" t="n">
-        <v>114.011453636999</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D28" t="n">
-        <v>114.011453636999</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6408,28 +6408,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U28" t="n">
-        <v>663.3212008849971</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V28" t="n">
-        <v>397.3418557058213</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="W28" t="n">
-        <v>114.011453636999</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="X28" t="n">
-        <v>114.011453636999</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.011453636999</v>
+        <v>202.8717822423411</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>825.9296003819453</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="C29" t="n">
-        <v>432.7540988848759</v>
+        <v>1576.315112671863</v>
       </c>
       <c r="D29" t="n">
-        <v>47.31297010154359</v>
+        <v>1190.873983888531</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154359</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T29" t="n">
-        <v>1937.641433863168</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U29" t="n">
-        <v>1937.641433863168</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="V29" t="n">
-        <v>1595.534624566687</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="W29" t="n">
-        <v>1595.534624566687</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="X29" t="n">
-        <v>1595.534624566687</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="Y29" t="n">
-        <v>1226.424346093342</v>
+        <v>1969.490614168933</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K30" t="n">
         <v>367.0521161637701</v>
@@ -6551,43 +6551,43 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>1436.116207068685</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X30" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>194.5257718883706</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C31" t="n">
-        <v>194.5257718883706</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D31" t="n">
-        <v>194.5257718883706</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>194.5257718883706</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6645,28 +6645,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S31" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T31" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U31" t="n">
-        <v>460.5051170675463</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="V31" t="n">
-        <v>194.5257718883706</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="W31" t="n">
-        <v>194.5257718883706</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="X31" t="n">
-        <v>194.5257718883706</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.5257718883706</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1682.450256730357</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="C32" t="n">
-        <v>1682.450256730357</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="D32" t="n">
-        <v>1604.036739400527</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.453214517072</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F32" t="n">
-        <v>784.5587760470498</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>503.6092283712866</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1049.610128415867</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1577.421412053329</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T32" t="n">
-        <v>2327.655591362701</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U32" t="n">
-        <v>2071.9028617973</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V32" t="n">
-        <v>2071.9028617973</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.9028617973</v>
+        <v>1316.080180979553</v>
       </c>
       <c r="X32" t="n">
-        <v>1682.450256730357</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="Y32" t="n">
-        <v>1682.450256730357</v>
+        <v>926.6275759126104</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>54.7036168026591</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>374.4427628648855</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>686.0359480608643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>204.6389048885706</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6888,22 +6888,22 @@
         <v>824.8590032756731</v>
       </c>
       <c r="T34" t="n">
-        <v>824.8590032756731</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U34" t="n">
-        <v>824.8590032756731</v>
+        <v>515.8513908616673</v>
       </c>
       <c r="V34" t="n">
-        <v>824.8590032756731</v>
+        <v>515.8513908616673</v>
       </c>
       <c r="W34" t="n">
-        <v>824.8590032756731</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="X34" t="n">
-        <v>824.8590032756731</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.8590032756731</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1085.534359978639</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="C35" t="n">
-        <v>1085.534359978639</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="D35" t="n">
-        <v>1085.534359978639</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E35" t="n">
-        <v>1085.534359978639</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F35" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G35" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>685.2830347289005</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1212.95206040644</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N35" t="n">
-        <v>1740.763344043902</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O35" t="n">
-        <v>2180.802944936231</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U35" t="n">
-        <v>2199.13495001823</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V35" t="n">
-        <v>1857.028140721749</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W35" t="n">
-        <v>1486.029105690036</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="X35" t="n">
-        <v>1486.029105690036</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="Y35" t="n">
-        <v>1486.029105690036</v>
+        <v>1563.28249744187</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154358</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N36" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.201482535627</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.201482535627</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.201482535627</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2241.747515709756</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S37" t="n">
-        <v>2241.747515709756</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T37" t="n">
-        <v>2241.747515709756</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U37" t="n">
-        <v>2241.747515709756</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V37" t="n">
-        <v>1981.612206821466</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="W37" t="n">
-        <v>1698.281804752643</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="X37" t="n">
-        <v>1464.201482535627</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="Y37" t="n">
-        <v>1464.201482535627</v>
+        <v>336.6041277001235</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1150.012650815455</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="C38" t="n">
-        <v>756.8371493183852</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="D38" t="n">
-        <v>371.396020535053</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E38" t="n">
-        <v>371.396020535053</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F38" t="n">
         <v>371.396020535053</v>
@@ -7168,58 +7168,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2252.571100210592</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>2252.571100210592</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U38" t="n">
-        <v>2252.571100210592</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V38" t="n">
-        <v>1910.46429091411</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W38" t="n">
-        <v>1539.465255882398</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X38" t="n">
-        <v>1150.012650815455</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="Y38" t="n">
-        <v>1150.012650815455</v>
+        <v>788.2904590050753</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154358</v>
+        <v>54.70361680265978</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M39" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7374,10 +7374,10 @@
         <v>114.011453636999</v>
       </c>
       <c r="X40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>895.1742662259204</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C41" t="n">
-        <v>895.1742662259204</v>
+        <v>968.782859969574</v>
       </c>
       <c r="D41" t="n">
-        <v>509.7331374425881</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E41" t="n">
-        <v>509.7331374425881</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F41" t="n">
-        <v>509.7331374425881</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
@@ -7423,40 +7423,40 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T41" t="n">
-        <v>1937.641433863168</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U41" t="n">
-        <v>1681.888704297767</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V41" t="n">
-        <v>1339.781895001286</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W41" t="n">
-        <v>968.7828599695731</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X41" t="n">
-        <v>968.7828599695731</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y41" t="n">
-        <v>895.1742662259204</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="M42" t="n">
-        <v>1436.116207068685</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
         <v>2206.800784875113</v>
@@ -7532,10 +7532,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7608,13 +7608,13 @@
         <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>968.7828599695731</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="C44" t="n">
-        <v>968.7828599695731</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D44" t="n">
-        <v>583.3417311862408</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E44" t="n">
-        <v>583.3417311862408</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F44" t="n">
-        <v>583.3417311862408</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L44" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M44" t="n">
-        <v>1590.266290800943</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N44" t="n">
-        <v>2118.077574438405</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.648505077179</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>1937.641433863168</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U44" t="n">
-        <v>1681.888704297767</v>
+        <v>2034.312513261617</v>
       </c>
       <c r="V44" t="n">
-        <v>1339.781895001286</v>
+        <v>2034.312513261617</v>
       </c>
       <c r="W44" t="n">
-        <v>968.7828599695731</v>
+        <v>1663.313478229905</v>
       </c>
       <c r="X44" t="n">
-        <v>968.7828599695731</v>
+        <v>1273.860873162962</v>
       </c>
       <c r="Y44" t="n">
-        <v>968.7828599695731</v>
+        <v>877.3701640835627</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7836,22 +7836,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>330.643372170366</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8066,16 +8066,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N3" t="n">
-        <v>191.7841776637791</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0443399574658</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q3" t="n">
         <v>320.9491282940651</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>177.0153387754951</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>266.9255203461039</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -8300,22 +8300,22 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N6" t="n">
-        <v>191.7841776637791</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,22 +8455,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L8" t="n">
-        <v>271.0551987388116</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>268.108476249245</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8534,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>310.2665579406502</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
-        <v>320.9491282940651</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>373.0193783173885</v>
@@ -8698,19 +8698,19 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M11" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N11" t="n">
-        <v>183.0754269340418</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O11" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>196.0090001429458</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O12" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q12" t="n">
         <v>320.9491282940651</v>
@@ -8929,25 +8929,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M14" t="n">
-        <v>183.681987193985</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N14" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O14" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>310.7299694642351</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O15" t="n">
         <v>322.6485340270401</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9172,16 +9172,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
-        <v>447.2465985618117</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>412.734320667415</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9242,25 +9242,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9409,19 +9409,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>296.0083050530717</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>186.088840441687</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9646,13 +9646,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>540.0265064010113</v>
       </c>
       <c r="O23" t="n">
-        <v>412.7343206674141</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
         <v>502.0059847475129</v>
@@ -9725,13 +9725,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N24" t="n">
-        <v>263.5850982253572</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9877,7 +9877,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9886,13 +9886,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>644.8631884980639</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>422.8212561536977</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10126,13 +10126,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600587</v>
+        <v>359.5215849845346</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10199,10 +10199,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N30" t="n">
-        <v>92.83741255226305</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,10 +10351,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10363,10 +10363,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>89.90975703142982</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,7 +10436,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10588,22 +10588,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>682.7240674336258</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10667,16 +10667,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N36" t="n">
-        <v>179.0738312465417</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10825,10 +10825,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>281.329912376922</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10837,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>89.90975703143043</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,7 +10910,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046925</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11071,10 +11071,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>487.848403846782</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P41" t="n">
         <v>150.3014472409252</v>
@@ -11141,16 +11141,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084876</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>92.83741255226305</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11311,10 +11311,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,7 +11384,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046925</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.9401713525995</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>221.1773736001872</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W2" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22628,19 +22628,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>140.7263918134788</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>196.1172237195774</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>122.678819408037</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22837,7 +22837,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22846,13 +22846,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X5" t="n">
-        <v>183.0084521145902</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>181.2807963649477</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -22913,25 +22913,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>83.49508829187052</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>111.165369689767</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -22941,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>151.2090976217395</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.5288231161317</v>
+        <v>387.706196716319</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>179.0370905938155</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23089,7 +23089,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>128.5957162214335</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>109.9727637634407</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -23193,16 +23193,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>143.3115727461609</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>3.400886175297046</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -23244,7 +23244,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>122.678819408037</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23263,10 +23263,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>179.0370905938154</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>168.5967144964697</v>
+        <v>187.3126840109637</v>
       </c>
       <c r="F11" t="n">
         <v>182.7645189471708</v>
@@ -23311,7 +23311,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>1.353447924654034</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -23354,7 +23354,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H12" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>48.89338144820752</v>
@@ -23393,7 +23393,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
-        <v>128.5957162214335</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>149.3093783573755</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23427,19 +23427,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>69.10327304716648</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -23475,13 +23475,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,7 +23503,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>187.3126840109637</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23548,7 +23548,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -23557,10 +23557,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>164.7394177797119</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X14" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>162.5648268504537</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -23627,22 +23627,22 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T15" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>38.85798071953144</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>128.5957162214335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>229.9778150724395</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>263.0322482430424</v>
       </c>
       <c r="C17" t="n">
-        <v>153.7885616961723</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>65.02387293039351</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>73.97896411275033</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,10 +24031,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>40.88490184379822</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24150,7 +24150,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>321.0943128364705</v>
       </c>
       <c r="F23" t="n">
-        <v>327.5081743173</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>246.1314562263206</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>27.88224691632979</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24496,7 +24496,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24621,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>65.73198240919206</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>88.48591856831857</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>82.26448668675968</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.10662629999354</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>40.08648914235714</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -24861,7 +24861,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>101.0403972573646</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24922,22 +24922,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>303.9573353389681</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>343.8243477998797</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.9211138417275</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25128,16 +25128,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>210.0287288641005</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>167.9865021250087</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25165,7 +25165,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>114.7596659930487</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25317,10 +25317,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>21.68175996330589</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>5.785595927976317</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25393,16 +25393,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>90.51477326777162</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>206.87060206142</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25633,22 +25633,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>291.0881485683477</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.6532941823887</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25870,22 +25870,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>336.1586201506607</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>146.4381667885177</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26076,22 +26076,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>123.269409138885</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>421144.2529677363</v>
+        <v>421144.2529677362</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678189.4116270847</v>
+        <v>678189.4116270849</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678189.4116270848</v>
+        <v>678189.4116270849</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678189.4116270842</v>
+        <v>678189.4116270849</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678189.4116270846</v>
+        <v>678189.4116270847</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678189.4116270841</v>
+        <v>678189.4116270847</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678189.4116270847</v>
+        <v>678189.4116270845</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678189.4116270848</v>
+        <v>678189.4116270849</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678189.4116270848</v>
+        <v>678189.4116270849</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678189.4116270848</v>
+        <v>678189.4116270849</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>98205.26357376789</v>
+      </c>
+      <c r="C2" t="n">
         <v>98205.26357376794</v>
       </c>
-      <c r="C2" t="n">
-        <v>98205.26357376795</v>
-      </c>
       <c r="D2" t="n">
-        <v>98205.26357376792</v>
+        <v>98205.26357376791</v>
       </c>
       <c r="E2" t="n">
         <v>98205.26357376789</v>
       </c>
       <c r="F2" t="n">
-        <v>98205.26357376789</v>
+        <v>98205.26357376791</v>
       </c>
       <c r="G2" t="n">
         <v>158101.391659894</v>
@@ -26334,16 +26334,16 @@
         <v>158101.391659894</v>
       </c>
       <c r="I2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="J2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="K2" t="n">
         <v>158101.3916598939</v>
       </c>
       <c r="L2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="M2" t="n">
         <v>158101.391659894</v>
@@ -26352,7 +26352,7 @@
         <v>158101.391659894</v>
       </c>
       <c r="O2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598941</v>
       </c>
       <c r="P2" t="n">
         <v>158101.391659894</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99068.33875777952</v>
+        <v>99068.33875777958</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>86983.58097086086</v>
+        <v>86983.58097086092</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>28522.60968068128</v>
       </c>
       <c r="G4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="H4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="I4" t="n">
         <v>46245.16569024821</v>
@@ -26444,22 +26444,22 @@
         <v>46245.16569024821</v>
       </c>
       <c r="K4" t="n">
-        <v>46245.16569024819</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="L4" t="n">
-        <v>46245.16569024819</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="M4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="N4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="O4" t="n">
-        <v>46245.16569024819</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="P4" t="n">
-        <v>46245.16569024819</v>
+        <v>46245.16569024821</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54991.78526653556</v>
+        <v>-56093.64087908511</v>
       </c>
       <c r="C6" t="n">
-        <v>22073.42660468709</v>
+        <v>20971.57099213755</v>
       </c>
       <c r="D6" t="n">
-        <v>22073.42660468706</v>
+        <v>20971.57099213752</v>
       </c>
       <c r="E6" t="n">
-        <v>55701.02660468702</v>
+        <v>54599.17099213752</v>
       </c>
       <c r="F6" t="n">
-        <v>55701.02660468703</v>
+        <v>54599.17099213752</v>
       </c>
       <c r="G6" t="n">
-        <v>-23169.97006530684</v>
+        <v>-23843.99619152698</v>
       </c>
       <c r="H6" t="n">
-        <v>75898.36869247265</v>
+        <v>75224.3425662526</v>
       </c>
       <c r="I6" t="n">
-        <v>75898.36869247261</v>
+        <v>75224.3425662526</v>
       </c>
       <c r="J6" t="n">
-        <v>15730.45931342614</v>
+        <v>15056.43318720616</v>
       </c>
       <c r="K6" t="n">
-        <v>75898.36869247259</v>
+        <v>75224.34256625254</v>
       </c>
       <c r="L6" t="n">
-        <v>75898.36869247262</v>
+        <v>75224.3425662526</v>
       </c>
       <c r="M6" t="n">
-        <v>75898.36869247264</v>
+        <v>75224.34256625258</v>
       </c>
       <c r="N6" t="n">
-        <v>75898.36869247265</v>
+        <v>75224.34256625264</v>
       </c>
       <c r="O6" t="n">
-        <v>-11085.21227838821</v>
+        <v>-11759.23840460826</v>
       </c>
       <c r="P6" t="n">
-        <v>75898.36869247268</v>
+        <v>75224.34256625258</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N3" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="Q3" t="n">
         <v>229.9609751381512</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>33.95693559625769</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N6" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L8" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q9" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>229.9609751381512</v>
@@ -35418,19 +35418,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N11" t="n">
-        <v>33.95693559625767</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q12" t="n">
         <v>229.9609751381512</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M14" t="n">
-        <v>33.95693559625769</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N14" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O15" t="n">
         <v>229.9609751381512</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35892,16 +35892,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>298.1281072240276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36129,19 +36129,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.5096066346796</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>93.70171839237511</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36366,13 +36366,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>390.9080150632272</v>
       </c>
       <c r="O23" t="n">
-        <v>263.1704832433177</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36445,13 +36445,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N24" t="n">
-        <v>178.2129853711906</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36606,13 +36606,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602798</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>330.4341341043858</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36846,13 +36846,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359623</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N30" t="n">
-        <v>7.465299698096393</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37083,10 +37083,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.465299698096472</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,7 +37156,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>532.9990158358986</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N36" t="n">
-        <v>93.701718392375</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37545,10 +37545,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>128.0817426464304</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37557,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37630,7 +37630,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,10 +37791,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>338.729912508998</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515694</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>7.465299698096393</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38031,10 +38031,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,7 +38104,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553806</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
